--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -3460,13 +3460,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14602</v>
+        <v>14603</v>
       </c>
       <c r="D60" t="n">
         <v>2910</v>
       </c>
       <c r="E60" t="n">
-        <v>45043136</v>
+        <v>45048456</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -5857,13 +5857,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D107" t="n">
         <v>21</v>
       </c>
       <c r="E107" t="n">
-        <v>15433640</v>
+        <v>16123861</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D114" t="n">
         <v>189</v>
       </c>
       <c r="E114" t="n">
-        <v>21093970</v>
+        <v>21105732</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -13864,13 +13864,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D264" t="n">
         <v>102</v>
       </c>
       <c r="E264" t="n">
-        <v>9577650</v>
+        <v>9697659</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -17383,13 +17383,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D333" t="n">
         <v>260</v>
       </c>
       <c r="E333" t="n">
-        <v>24829442</v>
+        <v>24855676</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5211</v>
+        <v>5212</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20420843</v>
+        <v>20422343</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45878</v>
+        <v>45879</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185177584</v>
+        <v>185180760</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94635</v>
+        <v>94639</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653306429</v>
+        <v>653374341</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22789,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D439" t="n">
         <v>232</v>
       </c>
       <c r="E439" t="n">
-        <v>135129731</v>
+        <v>135199140</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53197</v>
+        <v>53200</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117928480</v>
+        <v>117936707</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>53200612</v>
+        <v>53261043</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>6337</v>
+        <v>6338</v>
       </c>
       <c r="D470" t="n">
         <v>1078</v>
       </c>
       <c r="E470" t="n">
-        <v>57752101</v>
+        <v>57764269</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5388</v>
+        <v>5389</v>
       </c>
       <c r="D491" t="n">
         <v>918</v>
       </c>
       <c r="E491" t="n">
-        <v>44751617</v>
+        <v>44789722</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26512,13 +26512,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D512" t="n">
         <v>56</v>
       </c>
       <c r="E512" t="n">
-        <v>10145878</v>
+        <v>10745878</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>10693</v>
+        <v>10694</v>
       </c>
       <c r="D852" t="n">
         <v>1897</v>
       </c>
       <c r="E852" t="n">
-        <v>36419035</v>
+        <v>36424492</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
